--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C3DD1E-1DF5-4FAE-83D9-7265A0CD9FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE58C7B-5C48-441D-9D15-66FC9FB4A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>TOTAL ATTENDANCE</t>
   </si>
   <si>
-    <t>DAILY SALARY</t>
-  </si>
-  <si>
     <t xml:space="preserve">POSITION ALLOWANCE </t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>RAPEL</t>
+  </si>
+  <si>
+    <t>BASIC SALARY</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,40 +605,40 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
@@ -737,7 +737,7 @@
         <v>45219</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE58C7B-5C48-441D-9D15-66FC9FB4A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A436724-0051-4AFC-8D59-D49245F51BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>MEAL ALLOWANCE/DAY</t>
   </si>
   <si>
-    <t>OVERTIME/HOUR</t>
-  </si>
-  <si>
     <t>TOTAL OVERTIME HOURS</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>BASIC SALARY</t>
+  </si>
+  <si>
+    <t>OVERTIME</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>15</v>
@@ -617,28 +617,28 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>10</v>
@@ -737,7 +737,7 @@
         <v>45219</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A436724-0051-4AFC-8D59-D49245F51BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B009-9722-486A-9357-6472527C3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>NO</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>OVERTIME</t>
+  </si>
+  <si>
+    <t>POTONGAN TERLAMBAT</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -229,9 +232,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,12 +589,13 @@
     <col min="19" max="19" width="21.5703125" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="22" width="12.140625" customWidth="1"/>
-    <col min="23" max="23" width="21.28515625" customWidth="1"/>
-    <col min="24" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="23" max="23" width="23" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" customWidth="1"/>
+    <col min="25" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,10 +605,10 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -640,54 +641,57 @@
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>90000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>26</v>
       </c>
       <c r="F2" s="2">
@@ -708,7 +712,7 @@
       <c r="O2" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>700000</v>
       </c>
       <c r="Q2" s="2">
@@ -727,25 +731,26 @@
       <c r="V2" s="2">
         <v>250000</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
         <v>9000</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>45190</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>45219</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -756,7 +761,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -764,11 +769,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="2"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="7"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -784,7 +790,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -792,11 +798,12 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="2"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="7"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -812,7 +819,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="6"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -820,11 +827,12 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="2"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="7"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -840,7 +848,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -848,11 +856,12 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="2"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -868,7 +877,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -876,37 +885,10 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="3"/>
+      <c r="X7" s="2"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="7"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347B009-9722-486A-9357-6472527C3921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67B79A-7606-42C3-BA23-4FF7849E02BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>1234</t>
   </si>
   <si>
-    <t>KIM</t>
-  </si>
-  <si>
     <t>ALLOWANCE LOYALTY</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>POTONGAN TERLAMBAT</t>
+  </si>
+  <si>
+    <t>1DTC</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>15</v>
@@ -618,25 +618,25 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -663,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X1" s="9" t="s">
         <v>14</v>
@@ -742,7 +742,7 @@
         <v>45219</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67B79A-7606-42C3-BA23-4FF7849E02BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E814344-079F-4A67-BE5D-536C3A683908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>NO</t>
   </si>
@@ -39,12 +39,6 @@
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
-    <t>KOPERASI</t>
-  </si>
-  <si>
     <t>START DATE</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>ABSENSI</t>
-  </si>
-  <si>
-    <t>EXAMPLE</t>
-  </si>
-  <si>
     <t>BRANCH CODE</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>TOTAL OVERTIME HOURS</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>ALLOWANCE LOYALTY</t>
   </si>
   <si>
@@ -111,10 +96,22 @@
     <t>OVERTIME</t>
   </si>
   <si>
-    <t>POTONGAN TERLAMBAT</t>
-  </si>
-  <si>
-    <t>1DTC</t>
+    <t>POT IZIN</t>
+  </si>
+  <si>
+    <t>POT ABSENSI</t>
+  </si>
+  <si>
+    <t>POT TERLAMBAT</t>
+  </si>
+  <si>
+    <t>POT SERAGAM</t>
+  </si>
+  <si>
+    <t>POT KOPERASI</t>
+  </si>
+  <si>
+    <t>POT MCU</t>
   </si>
 </sst>
 </file>
@@ -219,7 +216,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,6 +244,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,12 +591,13 @@
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="22" width="12.140625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="21.28515625" customWidth="1"/>
-    <col min="25" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="24" max="25" width="12.140625" style="12" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="27" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,43 +605,43 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>1</v>
@@ -648,104 +650,74 @@
         <v>2</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8">
-        <v>90000</v>
-      </c>
-      <c r="E2" s="8">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O2" s="2">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5">
-        <v>700000</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="R2" s="2">
-        <v>15000</v>
-      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="U2" s="2">
-        <v>80000</v>
-      </c>
-      <c r="V2" s="2">
-        <v>250000</v>
-      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
-        <v>9000</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>45190</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>45219</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
       <c r="C3" s="8"/>
@@ -769,12 +741,14 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="6"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -798,12 +772,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="6"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -827,12 +803,14 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="6"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -856,12 +834,14 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="6"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -885,10 +865,12 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="6"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E814344-079F-4A67-BE5D-536C3A683908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262811D-DCDE-4829-8465-A53A03768864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -216,11 +216,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -234,20 +231,30 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,13 +574,13 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -588,59 +595,61 @@
     <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="21.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="25" width="12.140625" style="12" customWidth="1"/>
+    <col min="24" max="25" width="12.140625" customWidth="1"/>
     <col min="26" max="26" width="21.28515625" customWidth="1"/>
-    <col min="27" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="13" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="13" customWidth="1"/>
     <col min="29" max="29" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -676,201 +685,201 @@
       <c r="Z1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="6"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262811D-DCDE-4829-8465-A53A03768864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D461175-CDE4-40A9-AA8E-61F807BAFB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>BPJS KESEHATAN</t>
   </si>
   <si>
-    <t>POTONGAN LAIN-LAIN</t>
-  </si>
-  <si>
     <t>TOTAL ATTENDANCE</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>POT MCU</t>
+  </si>
+  <si>
+    <t>POT LAIN-LAIN</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
     <col min="14" max="14" width="16.140625" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" customWidth="1"/>
     <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="21.5703125" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
@@ -617,40 +617,40 @@
         <v>6</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>1</v>
@@ -665,25 +665,25 @@
         <v>9</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="AA1" s="12" t="s">
         <v>4</v>
